--- a/Files/Excel/Peugeot.xlsx
+++ b/Files/Excel/Peugeot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230EA5AE-9F4C-4CD6-99CD-2F7C570B90FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B55E3C-896A-44C9-8ABA-3773F458AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,222 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Peugeot 5CV</t>
-  </si>
-  <si>
-    <t>Peugeot 104</t>
-  </si>
-  <si>
-    <t>Peugeot 106</t>
-  </si>
-  <si>
-    <t>Peugeot 107</t>
-  </si>
-  <si>
-    <t>Peugeot 201</t>
-  </si>
-  <si>
-    <t>Peugeot 202</t>
-  </si>
-  <si>
-    <t>Peugeot 203</t>
-  </si>
-  <si>
-    <t>Peugeot 204</t>
-  </si>
-  <si>
-    <t>Peugeot 205</t>
-  </si>
-  <si>
-    <t>Peugeot 206</t>
-  </si>
-  <si>
-    <t>Peugeot 206 Escapade</t>
-  </si>
-  <si>
-    <t>Peugeot 207</t>
-  </si>
-  <si>
-    <t>Peugeot 207 Brasil</t>
-  </si>
-  <si>
-    <t>Peugeot 207 SW</t>
-  </si>
-  <si>
-    <t>Peugeot 207 SW Outdoor</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Peugeot 304</t>
-  </si>
-  <si>
-    <t>Peugeot 305</t>
-  </si>
-  <si>
-    <t>Peugeot 306</t>
-  </si>
-  <si>
-    <t>Peugeot 307</t>
-  </si>
-  <si>
-    <t>Peugeot 307 WRC</t>
-  </si>
-  <si>
-    <t>Peugeot 308</t>
-  </si>
-  <si>
-    <t>Peugeot 308 Hybride HDi</t>
-  </si>
-  <si>
-    <t>Peugeot 308 SW Prologue</t>
-  </si>
-  <si>
-    <t>Peugeot 309</t>
-  </si>
-  <si>
-    <t>Peugeot 403</t>
-  </si>
-  <si>
-    <t>Peugeot 404</t>
-  </si>
-  <si>
-    <t>Peugeot 405</t>
-  </si>
-  <si>
-    <t>Peugeot 406</t>
-  </si>
-  <si>
-    <t>Peugeot 407</t>
-  </si>
-  <si>
-    <t>Peugeot 408</t>
-  </si>
-  <si>
-    <t>Peugeot 504</t>
-  </si>
-  <si>
-    <t>Peugeot 505</t>
-  </si>
-  <si>
-    <t>Peugeot 508</t>
-  </si>
-  <si>
-    <t>Peugeot 604</t>
-  </si>
-  <si>
-    <t>Peugeot 605</t>
-  </si>
-  <si>
-    <t>Peugeot 607</t>
-  </si>
-  <si>
-    <t>Peugeot 806</t>
-  </si>
-  <si>
-    <t>Peugeot 807</t>
-  </si>
-  <si>
-    <t>Peugeot 905</t>
-  </si>
-  <si>
-    <t>Peugeot 907</t>
-  </si>
-  <si>
-    <t>Peugeot 908 HDi FAP</t>
-  </si>
-  <si>
-    <t>Peugeot 908 RC</t>
-  </si>
-  <si>
-    <t>Peugeot 1007</t>
-  </si>
-  <si>
-    <t>Peugeot 2008</t>
-  </si>
-  <si>
-    <t>Peugeot 3008</t>
-  </si>
-  <si>
-    <t>Peugeot 4007</t>
-  </si>
-  <si>
-    <t>Peugeot 4008</t>
-  </si>
-  <si>
-    <t>Peugeot 5008</t>
-  </si>
-  <si>
-    <t>Peugeot BB1</t>
-  </si>
-  <si>
-    <t>Peugeot Bébé</t>
-  </si>
-  <si>
-    <t>Peugeot Bipper</t>
-  </si>
-  <si>
-    <t>Fiat Ducato</t>
-  </si>
-  <si>
-    <t>Peugeot Flux</t>
-  </si>
-  <si>
-    <t>Peugeot Hoggar</t>
-  </si>
-  <si>
-    <t>Peugeot Moovie</t>
-  </si>
-  <si>
-    <t>Peugeot P4</t>
-  </si>
-  <si>
-    <t>Peugeot Partner</t>
-  </si>
-  <si>
-    <t>Peugeot 9X8</t>
-  </si>
-  <si>
-    <t>Peugeot Oxia</t>
-  </si>
-  <si>
-    <t>Peugeot Quasar</t>
-  </si>
-  <si>
-    <t>Peugeot Quadrilette</t>
-  </si>
-  <si>
-    <t>Peugeot RCZ</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 1</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 2</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 3</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 4</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 5</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 6</t>
-  </si>
-  <si>
-    <t>Peugeot Tipo 190</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Escapade</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>WRC</t>
+  </si>
+  <si>
+    <t>HDi</t>
+  </si>
+  <si>
+    <t>Prologue</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Bébé</t>
+  </si>
+  <si>
+    <t>Bipper</t>
+  </si>
+  <si>
+    <t>Ducato</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>Hoggar</t>
+  </si>
+  <si>
+    <t>Moovie</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Oxia</t>
+  </si>
+  <si>
+    <t>Quasar</t>
+  </si>
+  <si>
+    <t>Quadrilette</t>
+  </si>
+  <si>
+    <t>RCZ</t>
+  </si>
+  <si>
+    <t>Peugeot</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
@@ -598,583 +469,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B71"/>
+      <selection activeCell="A71" sqref="A2:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>201</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>202</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>203</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>206</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>207</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>207</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>208</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>305</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>306</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>307</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>307</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>308</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>309</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>403</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>404</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>405</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>406</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>407</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>408</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>504</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>505</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>508</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>604</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>605</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>607</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>806</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>807</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>905</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>907</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>908</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>908</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>1007</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>2008</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>3008</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B48">
         <v>4007</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>4008</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>5008</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B71">
         <v>190</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
